--- a/resources/Spring 2/Casos de prueba.xlsx
+++ b/resources/Spring 2/Casos de prueba.xlsx
@@ -1,14 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willv\Documents\1. Proyecto MisionTIC UTP Ciclo 3 - 4\resources\Spring 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742BF94C-E171-4A11-81BD-1C033D670ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="COBROS ADICIONALES" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="BITACORA " sheetId="2" r:id="rId5"/>
+    <sheet name="COBROS ADICIONALES" sheetId="1" r:id="rId1"/>
+    <sheet name="BITACORA " sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mixhrwuL/AMBybRF5G+7n3CpJiDFw=="/>
     </ext>
@@ -17,22 +34,30 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="O10">
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAdQFrzn4
     (2022-07-26 15:20:40)
 Numero del Bug registrado en Redmine.</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhVUOFenFUYZ9HTq10n2QShUMQT4A=="/>
     </ext>
   </extLst>
@@ -40,24 +65,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Proyecto:</t>
-  </si>
-  <si>
-    <t>Requerimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingeniero Testes: </t>
   </si>
   <si>
     <t>Carlos Vasquez</t>
   </si>
   <si>
     <t>Fecha:</t>
-  </si>
-  <si>
-    <t>--/--/--</t>
   </si>
   <si>
     <t>ID</t>
@@ -106,19 +122,7 @@
     <t>Tipo de Error</t>
   </si>
   <si>
-    <t xml:space="preserve">Requerimiento </t>
-  </si>
-  <si>
-    <t>00-00-00</t>
-  </si>
-  <si>
-    <t>Actualización 0</t>
-  </si>
-  <si>
     <t>Pag 1 de 2</t>
-  </si>
-  <si>
-    <t>VIGENTE DESDE: 10 NOVIEMBRE 2017</t>
   </si>
   <si>
     <t>MODIFICACIONES</t>
@@ -136,127 +140,140 @@
     <t>CONTENIDO DE LA MODIFICACIÓN</t>
   </si>
   <si>
-    <t>Elaboró:</t>
-  </si>
-  <si>
-    <t>Revisó:</t>
-  </si>
-  <si>
-    <t>Aprobó:</t>
-  </si>
-  <si>
     <t xml:space="preserve">INGENIERO DE PRUEBAS </t>
   </si>
   <si>
     <t>GERENTE PROYECTO</t>
   </si>
   <si>
-    <t>GERENTE</t>
+    <t xml:space="preserve">Fecha: </t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha: </t>
+    <t xml:space="preserve">Proyecto Blog experimentos cientificos </t>
+  </si>
+  <si>
+    <t>VIGENTE DESDE: 16 SEPTIEMBRE 2022</t>
+  </si>
+  <si>
+    <t>Elaboró: Carlos William Vasquez</t>
+  </si>
+  <si>
+    <t>Revisó: Catalina Vasquez</t>
+  </si>
+  <si>
+    <t>Requerimiento Inicio de sesion - panel de administracion → Crear y visualizar publicaciones</t>
+  </si>
+  <si>
+    <t>Actualización 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniero Tester: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -264,12 +281,12 @@
       <b/>
       <i/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -279,7 +296,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -294,8 +311,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
-    <border/>
+  <borders count="38">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
@@ -309,6 +332,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -320,59 +344,79 @@
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -382,37 +426,56 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -421,19 +484,25 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -443,6 +512,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -454,6 +524,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -463,18 +535,24 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -483,24 +561,31 @@
       <right style="thin">
         <color rgb="FF800000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -509,9 +594,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -526,30 +613,40 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -558,17 +655,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -581,6 +683,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -591,245 +694,375 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="129">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="32" fillId="3" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="3" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1019,43 +1252,48 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:U1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.29"/>
-    <col customWidth="1" min="2" max="2" width="6.86"/>
-    <col customWidth="1" min="3" max="3" width="37.29"/>
-    <col customWidth="1" min="4" max="4" width="54.0"/>
-    <col customWidth="1" min="5" max="5" width="19.86"/>
-    <col customWidth="1" min="6" max="6" width="51.43"/>
-    <col customWidth="1" min="7" max="7" width="17.57"/>
-    <col customWidth="1" min="8" max="8" width="32.0"/>
-    <col customWidth="1" min="9" max="9" width="24.57"/>
-    <col customWidth="1" min="10" max="10" width="16.14"/>
-    <col customWidth="1" min="11" max="11" width="12.0"/>
-    <col customWidth="1" min="12" max="12" width="11.0"/>
-    <col customWidth="1" min="13" max="13" width="14.14"/>
-    <col customWidth="1" min="14" max="14" width="16.43"/>
-    <col customWidth="1" min="15" max="15" width="23.86"/>
-    <col customWidth="1" min="16" max="16" width="7.0"/>
-    <col customWidth="1" min="17" max="17" width="10.0"/>
-    <col customWidth="1" min="18" max="18" width="6.57"/>
-    <col customWidth="1" min="19" max="21" width="5.14"/>
-    <col customWidth="1" min="22" max="26" width="17.29"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" customWidth="1"/>
+    <col min="19" max="21" width="5.109375" customWidth="1"/>
+    <col min="22" max="26" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1078,188 +1316,208 @@
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="66">
         <f>'BITACORA '!B18</f>
-        <v/>
+        <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="str">
+      <c r="C2" s="105"/>
+      <c r="D2" s="72" t="str">
         <f>'BITACORA '!D2</f>
-        <v>Requerimiento </v>
+        <v xml:space="preserve">Proyecto Blog experimentos cientificos </v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14" t="str">
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="76">
         <f>'BITACORA '!G2</f>
-        <v>00-00-00</v>
+        <v>44821</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="14" t="str">
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="76" t="str">
         <f>'BITACORA '!G3</f>
-        <v>Actualización 0</v>
+        <v>Actualización 1</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="14" t="str">
+      <c r="B4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="76" t="str">
         <f>'BITACORA '!G4</f>
         <v>Pag 1 de 2</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="14" t="str">
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="76" t="str">
         <f>'BITACORA '!G5</f>
-        <v>VIGENTE DESDE: 10 NOVIEMBRE 2017</v>
+        <v>VIGENTE DESDE: 16 SEPTIEMBRE 2022</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="112"/>
+      <c r="I7" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
-        <v>4</v>
+      <c r="B8" s="17" t="s">
+        <v>2</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>5</v>
+      <c r="C8" s="127">
+        <v>44821</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" ht="10.5" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+    <row r="9" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1267,249 +1525,251 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="35"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47" t="s">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="F10" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="G10" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="H10" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="I10" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="J10" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="K10" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="L10" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="M10" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="N10" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="47" t="s">
+      <c r="O10" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="P10" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-    </row>
-    <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-    </row>
-    <row r="12" ht="65.25" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-    </row>
-    <row r="13" ht="60.0" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-    </row>
-    <row r="14" ht="61.5" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-    </row>
-    <row r="15" ht="83.25" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-    </row>
-    <row r="16" ht="83.25" customHeight="1">
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-    </row>
-    <row r="17" ht="83.25" customHeight="1">
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-    </row>
-    <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" ht="21.75" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+    </row>
+    <row r="12" spans="1:21" ht="65.25" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" spans="1:21" ht="60" customHeight="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+    </row>
+    <row r="14" spans="1:21" ht="61.5" customHeight="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" spans="1:21" ht="83.25" customHeight="1">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="1:21" ht="83.25" customHeight="1">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" spans="1:21" ht="83.25" customHeight="1">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1521,16 +1781,18 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1542,16 +1804,18 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1563,16 +1827,18 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1591,11 +1857,11 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1614,11 +1880,11 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1637,11 +1903,11 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1660,11 +1926,11 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1683,11 +1949,11 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1706,11 +1972,11 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1729,11 +1995,11 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1752,11 +2018,11 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1775,11 +2041,11 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -1798,11 +2064,11 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -1821,11 +2087,11 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="71"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
+    <row r="33" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A33" s="47"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1844,11 +2110,11 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
+    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A34" s="47"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -1867,11 +2133,11 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
+    <row r="35" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A35" s="47"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -1890,11 +2156,11 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
+    <row r="36" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A36" s="47"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -1913,11 +2179,11 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
+    <row r="37" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A37" s="47"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1936,11 +2202,11 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78"/>
+    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -1959,11 +2225,11 @@
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="78"/>
+    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A39" s="47"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -1982,11 +2248,11 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="78"/>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A40" s="47"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2005,11 +2271,11 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78"/>
+    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A41" s="47"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2028,11 +2294,11 @@
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="71"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78"/>
+    <row r="42" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A42" s="47"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2051,11 +2317,11 @@
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
+    <row r="43" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A43" s="47"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2074,11 +2340,11 @@
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
+    <row r="44" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A44" s="47"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2097,11 +2363,11 @@
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="71"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="78"/>
+    <row r="45" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A45" s="47"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2120,11 +2386,11 @@
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="78"/>
+    <row r="46" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A46" s="47"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2143,11 +2409,11 @@
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="78"/>
+    <row r="47" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A47" s="47"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2166,11 +2432,11 @@
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="71"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="78"/>
+    <row r="48" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2189,11 +2455,11 @@
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="71"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="78"/>
+    <row r="49" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A49" s="47"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2212,11 +2478,11 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="71"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="78"/>
+    <row r="50" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A50" s="47"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2235,11 +2501,11 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="78"/>
+    <row r="51" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A51" s="47"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2258,11 +2524,11 @@
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="71"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="78"/>
+    <row r="52" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A52" s="47"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2281,11 +2547,11 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="78"/>
+    <row r="53" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A53" s="47"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2304,11 +2570,11 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="71"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="78"/>
+    <row r="54" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A54" s="47"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -2327,11 +2593,11 @@
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="71"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="78"/>
+    <row r="55" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A55" s="47"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -2350,11 +2616,11 @@
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="71"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="78"/>
+    <row r="56" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A56" s="47"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -2373,11 +2639,11 @@
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="78"/>
+    <row r="57" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A57" s="47"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -2396,11 +2662,11 @@
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="71"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
+    <row r="58" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -2419,11 +2685,11 @@
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="71"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
+    <row r="59" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A59" s="47"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -2442,11 +2708,11 @@
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
+    <row r="60" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A60" s="47"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -2465,11 +2731,11 @@
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="71"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="78"/>
+    <row r="61" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A61" s="47"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -2488,11 +2754,11 @@
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="71"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="78"/>
+    <row r="62" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A62" s="47"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -2511,11 +2777,11 @@
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="71"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="78"/>
+    <row r="63" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A63" s="47"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="54"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -2534,11 +2800,11 @@
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="71"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="78"/>
+    <row r="64" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A64" s="47"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="54"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -2557,11 +2823,11 @@
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="71"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="78"/>
+    <row r="65" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A65" s="47"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -2580,11 +2846,11 @@
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="71"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="78"/>
+    <row r="66" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A66" s="47"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="54"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -2603,11 +2869,11 @@
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="71"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="78"/>
+    <row r="67" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A67" s="47"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -2626,11 +2892,11 @@
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="71"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="78"/>
+    <row r="68" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A68" s="47"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -2649,11 +2915,11 @@
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="71"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="78"/>
+    <row r="69" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A69" s="47"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -2672,11 +2938,11 @@
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="71"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="78"/>
+    <row r="70" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A70" s="47"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -2695,11 +2961,11 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="71"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="78"/>
+    <row r="71" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A71" s="47"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -2718,11 +2984,11 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="71"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="78"/>
+    <row r="72" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A72" s="47"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -2741,11 +3007,11 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="71"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="78"/>
+    <row r="73" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A73" s="47"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -2764,11 +3030,11 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="71"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="78"/>
+    <row r="74" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A74" s="47"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -2787,11 +3053,11 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="71"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="78"/>
+    <row r="75" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A75" s="47"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="54"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -2810,11 +3076,11 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
+    <row r="76" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A76" s="47"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="54"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -2833,11 +3099,11 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="71"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
+    <row r="77" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A77" s="47"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="54"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -2856,11 +3122,11 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="71"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
+    <row r="78" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A78" s="47"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="54"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -2879,11 +3145,11 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="71"/>
-      <c r="B79" s="77"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="78"/>
+    <row r="79" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A79" s="47"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="54"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -2902,11 +3168,11 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="71"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="78"/>
+    <row r="80" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A80" s="47"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="54"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -2925,11 +3191,11 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="71"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="78"/>
+    <row r="81" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A81" s="47"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="54"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -2948,11 +3214,11 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="71"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="78"/>
+    <row r="82" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A82" s="47"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="54"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -2971,11 +3237,11 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="71"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="77"/>
-      <c r="D83" s="78"/>
+    <row r="83" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A83" s="47"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="54"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
@@ -2994,11 +3260,11 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="71"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="78"/>
+    <row r="84" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A84" s="47"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="54"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -3017,11 +3283,11 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="71"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="78"/>
+    <row r="85" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A85" s="47"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="54"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -3040,11 +3306,11 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="71"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="78"/>
+    <row r="86" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A86" s="47"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="54"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -3063,11 +3329,11 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="71"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="78"/>
+    <row r="87" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A87" s="47"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="54"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -3086,11 +3352,11 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="71"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="78"/>
+    <row r="88" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A88" s="47"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -3109,11 +3375,11 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="71"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="78"/>
+    <row r="89" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A89" s="47"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="54"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -3132,11 +3398,11 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="71"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="78"/>
+    <row r="90" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A90" s="47"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="54"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
@@ -3155,11 +3421,11 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="71"/>
-      <c r="B91" s="77"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="78"/>
+    <row r="91" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A91" s="47"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="54"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -3178,11 +3444,11 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="71"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="77"/>
-      <c r="D92" s="78"/>
+    <row r="92" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A92" s="47"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -3201,11 +3467,11 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="71"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="78"/>
+    <row r="93" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A93" s="47"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -3224,11 +3490,11 @@
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="71"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="78"/>
+    <row r="94" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A94" s="47"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -3247,11 +3513,11 @@
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="71"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="78"/>
+    <row r="95" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A95" s="47"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -3270,11 +3536,11 @@
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="71"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="78"/>
+    <row r="96" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A96" s="47"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="54"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
@@ -3293,11 +3559,11 @@
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="71"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="78"/>
+    <row r="97" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A97" s="47"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="54"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -3316,11 +3582,11 @@
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="71"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="78"/>
+    <row r="98" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A98" s="47"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -3339,11 +3605,11 @@
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="71"/>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="78"/>
+    <row r="99" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A99" s="47"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -3362,11 +3628,11 @@
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="71"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="78"/>
+    <row r="100" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A100" s="47"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -3385,11 +3651,11 @@
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="78"/>
+    <row r="101" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A101" s="47"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -3408,11 +3674,11 @@
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="71"/>
-      <c r="B102" s="77"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="78"/>
+    <row r="102" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A102" s="47"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -3431,11 +3697,11 @@
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="71"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="78"/>
+    <row r="103" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A103" s="47"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="54"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -3454,11 +3720,11 @@
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="71"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="78"/>
+    <row r="104" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A104" s="47"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="54"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -3477,11 +3743,11 @@
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="71"/>
-      <c r="B105" s="77"/>
-      <c r="C105" s="77"/>
-      <c r="D105" s="78"/>
+    <row r="105" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A105" s="47"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -3500,11 +3766,11 @@
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="71"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="78"/>
+    <row r="106" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A106" s="47"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="54"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
@@ -3523,11 +3789,11 @@
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="71"/>
-      <c r="B107" s="77"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="78"/>
+    <row r="107" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A107" s="47"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -3546,11 +3812,11 @@
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="71"/>
-      <c r="B108" s="77"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="78"/>
+    <row r="108" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A108" s="47"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
@@ -3569,11 +3835,11 @@
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="71"/>
-      <c r="B109" s="77"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="78"/>
+    <row r="109" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A109" s="47"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -3592,11 +3858,11 @@
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="71"/>
-      <c r="B110" s="77"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="78"/>
+    <row r="110" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A110" s="47"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="54"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -3615,11 +3881,11 @@
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="71"/>
-      <c r="B111" s="77"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="78"/>
+    <row r="111" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A111" s="47"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="54"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
@@ -3638,11 +3904,11 @@
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="71"/>
-      <c r="B112" s="77"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="78"/>
+    <row r="112" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A112" s="47"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
@@ -3661,11 +3927,11 @@
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="71"/>
-      <c r="B113" s="77"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="78"/>
+    <row r="113" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A113" s="47"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -3684,11 +3950,11 @@
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="71"/>
-      <c r="B114" s="77"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="78"/>
+    <row r="114" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A114" s="47"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="54"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -3707,11 +3973,11 @@
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="71"/>
-      <c r="B115" s="77"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="78"/>
+    <row r="115" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A115" s="47"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -3730,11 +3996,11 @@
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="71"/>
-      <c r="B116" s="77"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="78"/>
+    <row r="116" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A116" s="47"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="54"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
@@ -3753,11 +4019,11 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="71"/>
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="78"/>
+    <row r="117" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A117" s="47"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="54"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
@@ -3776,11 +4042,11 @@
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="71"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="78"/>
+    <row r="118" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A118" s="47"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="54"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
@@ -3799,11 +4065,11 @@
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="71"/>
-      <c r="B119" s="77"/>
-      <c r="C119" s="77"/>
-      <c r="D119" s="78"/>
+    <row r="119" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A119" s="47"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="54"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
@@ -3822,11 +4088,11 @@
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="71"/>
-      <c r="B120" s="77"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="78"/>
+    <row r="120" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A120" s="47"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="54"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -3845,11 +4111,11 @@
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="71"/>
-      <c r="B121" s="77"/>
-      <c r="C121" s="77"/>
-      <c r="D121" s="78"/>
+    <row r="121" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A121" s="47"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="54"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
@@ -3868,11 +4134,11 @@
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="71"/>
-      <c r="B122" s="77"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="78"/>
+    <row r="122" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A122" s="47"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="54"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
@@ -3891,11 +4157,11 @@
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="71"/>
-      <c r="B123" s="77"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="78"/>
+    <row r="123" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A123" s="47"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="54"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
@@ -3914,11 +4180,11 @@
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="71"/>
-      <c r="B124" s="77"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="78"/>
+    <row r="124" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A124" s="47"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="54"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
@@ -3937,11 +4203,11 @@
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="71"/>
-      <c r="B125" s="77"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="78"/>
+    <row r="125" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A125" s="47"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="54"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
@@ -3960,11 +4226,11 @@
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="71"/>
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="78"/>
+    <row r="126" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A126" s="47"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="54"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
@@ -3983,11 +4249,11 @@
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="71"/>
-      <c r="B127" s="77"/>
-      <c r="C127" s="77"/>
-      <c r="D127" s="78"/>
+    <row r="127" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A127" s="47"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="54"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
@@ -4006,11 +4272,11 @@
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="71"/>
-      <c r="B128" s="77"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="78"/>
+    <row r="128" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A128" s="47"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="54"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
@@ -4029,11 +4295,11 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="71"/>
-      <c r="B129" s="77"/>
-      <c r="C129" s="77"/>
-      <c r="D129" s="78"/>
+    <row r="129" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A129" s="47"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="54"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
@@ -4052,11 +4318,11 @@
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="71"/>
-      <c r="B130" s="77"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="78"/>
+    <row r="130" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A130" s="47"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="54"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
@@ -4075,11 +4341,11 @@
       <c r="T130" s="8"/>
       <c r="U130" s="8"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="71"/>
-      <c r="B131" s="77"/>
-      <c r="C131" s="77"/>
-      <c r="D131" s="78"/>
+    <row r="131" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A131" s="47"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="54"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
@@ -4098,11 +4364,11 @@
       <c r="T131" s="8"/>
       <c r="U131" s="8"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="71"/>
-      <c r="B132" s="77"/>
-      <c r="C132" s="77"/>
-      <c r="D132" s="78"/>
+    <row r="132" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A132" s="47"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="54"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
@@ -4121,11 +4387,11 @@
       <c r="T132" s="8"/>
       <c r="U132" s="8"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="71"/>
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="78"/>
+    <row r="133" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A133" s="47"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="54"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
@@ -4144,11 +4410,11 @@
       <c r="T133" s="8"/>
       <c r="U133" s="8"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="71"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="77"/>
-      <c r="D134" s="78"/>
+    <row r="134" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A134" s="47"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="54"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
@@ -4167,11 +4433,11 @@
       <c r="T134" s="8"/>
       <c r="U134" s="8"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="71"/>
-      <c r="B135" s="77"/>
-      <c r="C135" s="77"/>
-      <c r="D135" s="78"/>
+    <row r="135" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A135" s="47"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="54"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
@@ -4190,11 +4456,11 @@
       <c r="T135" s="8"/>
       <c r="U135" s="8"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="71"/>
-      <c r="B136" s="77"/>
-      <c r="C136" s="77"/>
-      <c r="D136" s="78"/>
+    <row r="136" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A136" s="47"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="54"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
@@ -4213,11 +4479,11 @@
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="71"/>
-      <c r="B137" s="77"/>
-      <c r="C137" s="77"/>
-      <c r="D137" s="78"/>
+    <row r="137" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A137" s="47"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="54"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
@@ -4236,11 +4502,11 @@
       <c r="T137" s="8"/>
       <c r="U137" s="8"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="71"/>
-      <c r="B138" s="77"/>
-      <c r="C138" s="77"/>
-      <c r="D138" s="78"/>
+    <row r="138" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A138" s="47"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="54"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
@@ -4259,11 +4525,11 @@
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="71"/>
-      <c r="B139" s="77"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="78"/>
+    <row r="139" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A139" s="47"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="54"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
@@ -4282,11 +4548,11 @@
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="71"/>
-      <c r="B140" s="77"/>
-      <c r="C140" s="77"/>
-      <c r="D140" s="78"/>
+    <row r="140" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A140" s="47"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="54"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
@@ -4305,11 +4571,11 @@
       <c r="T140" s="8"/>
       <c r="U140" s="8"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="71"/>
-      <c r="B141" s="77"/>
-      <c r="C141" s="77"/>
-      <c r="D141" s="78"/>
+    <row r="141" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A141" s="47"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="54"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -4328,11 +4594,11 @@
       <c r="T141" s="8"/>
       <c r="U141" s="8"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="71"/>
-      <c r="B142" s="77"/>
-      <c r="C142" s="77"/>
-      <c r="D142" s="78"/>
+    <row r="142" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A142" s="47"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="54"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
@@ -4351,11 +4617,11 @@
       <c r="T142" s="8"/>
       <c r="U142" s="8"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="71"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="78"/>
+    <row r="143" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A143" s="47"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="54"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
@@ -4374,11 +4640,11 @@
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="71"/>
-      <c r="B144" s="77"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="78"/>
+    <row r="144" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A144" s="47"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="54"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
@@ -4397,11 +4663,11 @@
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="71"/>
-      <c r="B145" s="77"/>
-      <c r="C145" s="77"/>
-      <c r="D145" s="78"/>
+    <row r="145" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A145" s="47"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="54"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
@@ -4420,11 +4686,11 @@
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="71"/>
-      <c r="B146" s="77"/>
-      <c r="C146" s="77"/>
-      <c r="D146" s="78"/>
+    <row r="146" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A146" s="47"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="54"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
@@ -4443,11 +4709,11 @@
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="71"/>
-      <c r="B147" s="77"/>
-      <c r="C147" s="77"/>
-      <c r="D147" s="78"/>
+    <row r="147" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A147" s="47"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="54"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
@@ -4466,11 +4732,11 @@
       <c r="T147" s="8"/>
       <c r="U147" s="8"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="71"/>
-      <c r="B148" s="77"/>
-      <c r="C148" s="77"/>
-      <c r="D148" s="78"/>
+    <row r="148" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A148" s="47"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="54"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
@@ -4489,11 +4755,11 @@
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="71"/>
-      <c r="B149" s="77"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="78"/>
+    <row r="149" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A149" s="47"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="54"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
@@ -4512,11 +4778,11 @@
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="71"/>
-      <c r="B150" s="77"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="78"/>
+    <row r="150" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A150" s="47"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="54"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
@@ -4535,11 +4801,11 @@
       <c r="T150" s="8"/>
       <c r="U150" s="8"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="71"/>
-      <c r="B151" s="77"/>
-      <c r="C151" s="77"/>
-      <c r="D151" s="78"/>
+    <row r="151" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A151" s="47"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="54"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
@@ -4558,11 +4824,11 @@
       <c r="T151" s="8"/>
       <c r="U151" s="8"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="71"/>
-      <c r="B152" s="77"/>
-      <c r="C152" s="77"/>
-      <c r="D152" s="78"/>
+    <row r="152" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A152" s="47"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="54"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
@@ -4581,11 +4847,11 @@
       <c r="T152" s="8"/>
       <c r="U152" s="8"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="71"/>
-      <c r="B153" s="77"/>
-      <c r="C153" s="77"/>
-      <c r="D153" s="78"/>
+    <row r="153" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A153" s="47"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="54"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
@@ -4604,11 +4870,11 @@
       <c r="T153" s="8"/>
       <c r="U153" s="8"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="71"/>
-      <c r="B154" s="77"/>
-      <c r="C154" s="77"/>
-      <c r="D154" s="78"/>
+    <row r="154" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A154" s="47"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="54"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
@@ -4627,11 +4893,11 @@
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="71"/>
-      <c r="B155" s="77"/>
-      <c r="C155" s="77"/>
-      <c r="D155" s="78"/>
+    <row r="155" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A155" s="47"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="54"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
@@ -4650,11 +4916,11 @@
       <c r="T155" s="8"/>
       <c r="U155" s="8"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="71"/>
-      <c r="B156" s="77"/>
-      <c r="C156" s="77"/>
-      <c r="D156" s="78"/>
+    <row r="156" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A156" s="47"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="54"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
@@ -4673,11 +4939,11 @@
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="71"/>
-      <c r="B157" s="77"/>
-      <c r="C157" s="77"/>
-      <c r="D157" s="78"/>
+    <row r="157" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A157" s="47"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="54"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
@@ -4696,11 +4962,11 @@
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="71"/>
-      <c r="B158" s="77"/>
-      <c r="C158" s="77"/>
-      <c r="D158" s="78"/>
+    <row r="158" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A158" s="47"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="54"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
@@ -4719,11 +4985,11 @@
       <c r="T158" s="8"/>
       <c r="U158" s="8"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="71"/>
-      <c r="B159" s="77"/>
-      <c r="C159" s="77"/>
-      <c r="D159" s="78"/>
+    <row r="159" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A159" s="47"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="54"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
@@ -4742,11 +5008,11 @@
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="71"/>
-      <c r="B160" s="77"/>
-      <c r="C160" s="77"/>
-      <c r="D160" s="78"/>
+    <row r="160" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A160" s="47"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="54"/>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
@@ -4765,11 +5031,11 @@
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="71"/>
-      <c r="B161" s="77"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="78"/>
+    <row r="161" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A161" s="47"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="54"/>
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
@@ -4788,11 +5054,11 @@
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="71"/>
-      <c r="B162" s="77"/>
-      <c r="C162" s="77"/>
-      <c r="D162" s="78"/>
+    <row r="162" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A162" s="47"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="53"/>
+      <c r="D162" s="54"/>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
@@ -4811,11 +5077,11 @@
       <c r="T162" s="8"/>
       <c r="U162" s="8"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="71"/>
-      <c r="B163" s="77"/>
-      <c r="C163" s="77"/>
-      <c r="D163" s="78"/>
+    <row r="163" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A163" s="47"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="54"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
@@ -4834,11 +5100,11 @@
       <c r="T163" s="8"/>
       <c r="U163" s="8"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="71"/>
-      <c r="B164" s="77"/>
-      <c r="C164" s="77"/>
-      <c r="D164" s="78"/>
+    <row r="164" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A164" s="47"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="54"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
@@ -4857,11 +5123,11 @@
       <c r="T164" s="8"/>
       <c r="U164" s="8"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="71"/>
-      <c r="B165" s="77"/>
-      <c r="C165" s="77"/>
-      <c r="D165" s="78"/>
+    <row r="165" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A165" s="47"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="54"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
@@ -4880,11 +5146,11 @@
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="71"/>
-      <c r="B166" s="77"/>
-      <c r="C166" s="77"/>
-      <c r="D166" s="78"/>
+    <row r="166" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A166" s="47"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="54"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
@@ -4903,11 +5169,11 @@
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="71"/>
-      <c r="B167" s="77"/>
-      <c r="C167" s="77"/>
-      <c r="D167" s="78"/>
+    <row r="167" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A167" s="47"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="54"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
@@ -4926,11 +5192,11 @@
       <c r="T167" s="8"/>
       <c r="U167" s="8"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="71"/>
-      <c r="B168" s="77"/>
-      <c r="C168" s="77"/>
-      <c r="D168" s="78"/>
+    <row r="168" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A168" s="47"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="54"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
@@ -4949,11 +5215,11 @@
       <c r="T168" s="8"/>
       <c r="U168" s="8"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="71"/>
-      <c r="B169" s="77"/>
-      <c r="C169" s="77"/>
-      <c r="D169" s="78"/>
+    <row r="169" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A169" s="47"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="54"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
@@ -4972,11 +5238,11 @@
       <c r="T169" s="8"/>
       <c r="U169" s="8"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="71"/>
-      <c r="B170" s="77"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="78"/>
+    <row r="170" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A170" s="47"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="54"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
@@ -4995,11 +5261,11 @@
       <c r="T170" s="8"/>
       <c r="U170" s="8"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="71"/>
-      <c r="B171" s="77"/>
-      <c r="C171" s="77"/>
-      <c r="D171" s="78"/>
+    <row r="171" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A171" s="47"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="54"/>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
@@ -5018,11 +5284,11 @@
       <c r="T171" s="8"/>
       <c r="U171" s="8"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="71"/>
-      <c r="B172" s="77"/>
-      <c r="C172" s="77"/>
-      <c r="D172" s="78"/>
+    <row r="172" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A172" s="47"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="54"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
@@ -5041,11 +5307,11 @@
       <c r="T172" s="8"/>
       <c r="U172" s="8"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="71"/>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="78"/>
+    <row r="173" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A173" s="47"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="54"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
@@ -5064,11 +5330,11 @@
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="71"/>
-      <c r="B174" s="77"/>
-      <c r="C174" s="77"/>
-      <c r="D174" s="78"/>
+    <row r="174" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A174" s="47"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="54"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
@@ -5087,11 +5353,11 @@
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="71"/>
-      <c r="B175" s="77"/>
-      <c r="C175" s="77"/>
-      <c r="D175" s="78"/>
+    <row r="175" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A175" s="47"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="54"/>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
@@ -5110,11 +5376,11 @@
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="71"/>
-      <c r="B176" s="77"/>
-      <c r="C176" s="77"/>
-      <c r="D176" s="78"/>
+    <row r="176" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A176" s="47"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="54"/>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
@@ -5133,11 +5399,11 @@
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="71"/>
-      <c r="B177" s="77"/>
-      <c r="C177" s="77"/>
-      <c r="D177" s="78"/>
+    <row r="177" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A177" s="47"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="54"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
@@ -5156,11 +5422,11 @@
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="71"/>
-      <c r="B178" s="77"/>
-      <c r="C178" s="77"/>
-      <c r="D178" s="78"/>
+    <row r="178" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A178" s="47"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="54"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
@@ -5179,11 +5445,11 @@
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="71"/>
-      <c r="B179" s="77"/>
-      <c r="C179" s="77"/>
-      <c r="D179" s="78"/>
+    <row r="179" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A179" s="47"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="54"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
@@ -5202,11 +5468,11 @@
       <c r="T179" s="8"/>
       <c r="U179" s="8"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="71"/>
-      <c r="B180" s="77"/>
-      <c r="C180" s="77"/>
-      <c r="D180" s="78"/>
+    <row r="180" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A180" s="47"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="54"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
@@ -5225,11 +5491,11 @@
       <c r="T180" s="8"/>
       <c r="U180" s="8"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="71"/>
-      <c r="B181" s="77"/>
-      <c r="C181" s="77"/>
-      <c r="D181" s="78"/>
+    <row r="181" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A181" s="47"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="54"/>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
@@ -5248,11 +5514,11 @@
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="71"/>
-      <c r="B182" s="77"/>
-      <c r="C182" s="77"/>
-      <c r="D182" s="78"/>
+    <row r="182" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A182" s="47"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="54"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
@@ -5271,11 +5537,11 @@
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="71"/>
-      <c r="B183" s="77"/>
-      <c r="C183" s="77"/>
-      <c r="D183" s="78"/>
+    <row r="183" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A183" s="47"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="54"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
@@ -5294,11 +5560,11 @@
       <c r="T183" s="8"/>
       <c r="U183" s="8"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="71"/>
-      <c r="B184" s="77"/>
-      <c r="C184" s="77"/>
-      <c r="D184" s="78"/>
+    <row r="184" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A184" s="47"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="54"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
@@ -5317,11 +5583,11 @@
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="71"/>
-      <c r="B185" s="77"/>
-      <c r="C185" s="77"/>
-      <c r="D185" s="78"/>
+    <row r="185" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A185" s="47"/>
+      <c r="B185" s="53"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="54"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
@@ -5340,11 +5606,11 @@
       <c r="T185" s="8"/>
       <c r="U185" s="8"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="71"/>
-      <c r="B186" s="77"/>
-      <c r="C186" s="77"/>
-      <c r="D186" s="78"/>
+    <row r="186" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A186" s="47"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="53"/>
+      <c r="D186" s="54"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
@@ -5363,11 +5629,11 @@
       <c r="T186" s="8"/>
       <c r="U186" s="8"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="71"/>
-      <c r="B187" s="77"/>
-      <c r="C187" s="77"/>
-      <c r="D187" s="78"/>
+    <row r="187" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A187" s="47"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="53"/>
+      <c r="D187" s="54"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
@@ -5386,11 +5652,11 @@
       <c r="T187" s="8"/>
       <c r="U187" s="8"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="71"/>
-      <c r="B188" s="77"/>
-      <c r="C188" s="77"/>
-      <c r="D188" s="78"/>
+    <row r="188" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A188" s="47"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="54"/>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
@@ -5409,11 +5675,11 @@
       <c r="T188" s="8"/>
       <c r="U188" s="8"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="71"/>
-      <c r="B189" s="77"/>
-      <c r="C189" s="77"/>
-      <c r="D189" s="78"/>
+    <row r="189" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A189" s="47"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="54"/>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
@@ -5432,11 +5698,11 @@
       <c r="T189" s="8"/>
       <c r="U189" s="8"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="71"/>
-      <c r="B190" s="77"/>
-      <c r="C190" s="77"/>
-      <c r="D190" s="78"/>
+    <row r="190" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A190" s="47"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="54"/>
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
@@ -5455,11 +5721,11 @@
       <c r="T190" s="8"/>
       <c r="U190" s="8"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="71"/>
-      <c r="B191" s="77"/>
-      <c r="C191" s="77"/>
-      <c r="D191" s="78"/>
+    <row r="191" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A191" s="47"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="54"/>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
@@ -5478,11 +5744,11 @@
       <c r="T191" s="8"/>
       <c r="U191" s="8"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="71"/>
-      <c r="B192" s="77"/>
-      <c r="C192" s="77"/>
-      <c r="D192" s="78"/>
+    <row r="192" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A192" s="47"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="53"/>
+      <c r="D192" s="54"/>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
@@ -5501,11 +5767,11 @@
       <c r="T192" s="8"/>
       <c r="U192" s="8"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="71"/>
-      <c r="B193" s="77"/>
-      <c r="C193" s="77"/>
-      <c r="D193" s="78"/>
+    <row r="193" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A193" s="47"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="53"/>
+      <c r="D193" s="54"/>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
@@ -5524,11 +5790,11 @@
       <c r="T193" s="8"/>
       <c r="U193" s="8"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="71"/>
-      <c r="B194" s="77"/>
-      <c r="C194" s="77"/>
-      <c r="D194" s="78"/>
+    <row r="194" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A194" s="47"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="53"/>
+      <c r="D194" s="54"/>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
@@ -5547,11 +5813,11 @@
       <c r="T194" s="8"/>
       <c r="U194" s="8"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="71"/>
-      <c r="B195" s="77"/>
-      <c r="C195" s="77"/>
-      <c r="D195" s="78"/>
+    <row r="195" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A195" s="47"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="53"/>
+      <c r="D195" s="54"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
@@ -5570,11 +5836,11 @@
       <c r="T195" s="8"/>
       <c r="U195" s="8"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="71"/>
-      <c r="B196" s="77"/>
-      <c r="C196" s="77"/>
-      <c r="D196" s="78"/>
+    <row r="196" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A196" s="47"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="54"/>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
@@ -5593,11 +5859,11 @@
       <c r="T196" s="8"/>
       <c r="U196" s="8"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="71"/>
-      <c r="B197" s="77"/>
-      <c r="C197" s="77"/>
-      <c r="D197" s="78"/>
+    <row r="197" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A197" s="47"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="54"/>
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
@@ -5616,11 +5882,11 @@
       <c r="T197" s="8"/>
       <c r="U197" s="8"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="71"/>
-      <c r="B198" s="77"/>
-      <c r="C198" s="77"/>
-      <c r="D198" s="78"/>
+    <row r="198" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A198" s="47"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="54"/>
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
@@ -5639,11 +5905,11 @@
       <c r="T198" s="8"/>
       <c r="U198" s="8"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="71"/>
-      <c r="B199" s="77"/>
-      <c r="C199" s="77"/>
-      <c r="D199" s="78"/>
+    <row r="199" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A199" s="47"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="53"/>
+      <c r="D199" s="54"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
@@ -5662,11 +5928,11 @@
       <c r="T199" s="8"/>
       <c r="U199" s="8"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="71"/>
-      <c r="B200" s="77"/>
-      <c r="C200" s="77"/>
-      <c r="D200" s="78"/>
+    <row r="200" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A200" s="47"/>
+      <c r="B200" s="53"/>
+      <c r="C200" s="53"/>
+      <c r="D200" s="54"/>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
@@ -5685,11 +5951,11 @@
       <c r="T200" s="8"/>
       <c r="U200" s="8"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="71"/>
-      <c r="B201" s="77"/>
-      <c r="C201" s="77"/>
-      <c r="D201" s="78"/>
+    <row r="201" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A201" s="47"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="54"/>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
@@ -5708,11 +5974,11 @@
       <c r="T201" s="8"/>
       <c r="U201" s="8"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="71"/>
-      <c r="B202" s="77"/>
-      <c r="C202" s="77"/>
-      <c r="D202" s="78"/>
+    <row r="202" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A202" s="47"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="54"/>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
@@ -5731,11 +5997,11 @@
       <c r="T202" s="8"/>
       <c r="U202" s="8"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="71"/>
-      <c r="B203" s="77"/>
-      <c r="C203" s="77"/>
-      <c r="D203" s="78"/>
+    <row r="203" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A203" s="47"/>
+      <c r="B203" s="53"/>
+      <c r="C203" s="53"/>
+      <c r="D203" s="54"/>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
@@ -5754,11 +6020,11 @@
       <c r="T203" s="8"/>
       <c r="U203" s="8"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="71"/>
-      <c r="B204" s="77"/>
-      <c r="C204" s="77"/>
-      <c r="D204" s="78"/>
+    <row r="204" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A204" s="47"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="53"/>
+      <c r="D204" s="54"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
@@ -5777,11 +6043,11 @@
       <c r="T204" s="8"/>
       <c r="U204" s="8"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="71"/>
-      <c r="B205" s="77"/>
-      <c r="C205" s="77"/>
-      <c r="D205" s="78"/>
+    <row r="205" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A205" s="47"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="53"/>
+      <c r="D205" s="54"/>
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
@@ -5800,11 +6066,11 @@
       <c r="T205" s="8"/>
       <c r="U205" s="8"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="71"/>
-      <c r="B206" s="77"/>
-      <c r="C206" s="77"/>
-      <c r="D206" s="78"/>
+    <row r="206" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A206" s="47"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="53"/>
+      <c r="D206" s="54"/>
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
@@ -5823,11 +6089,11 @@
       <c r="T206" s="8"/>
       <c r="U206" s="8"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="71"/>
-      <c r="B207" s="77"/>
-      <c r="C207" s="77"/>
-      <c r="D207" s="78"/>
+    <row r="207" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A207" s="47"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="53"/>
+      <c r="D207" s="54"/>
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
@@ -5846,11 +6112,11 @@
       <c r="T207" s="8"/>
       <c r="U207" s="8"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="71"/>
-      <c r="B208" s="77"/>
-      <c r="C208" s="77"/>
-      <c r="D208" s="78"/>
+    <row r="208" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A208" s="47"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="53"/>
+      <c r="D208" s="54"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
@@ -5869,11 +6135,11 @@
       <c r="T208" s="8"/>
       <c r="U208" s="8"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="71"/>
-      <c r="B209" s="77"/>
-      <c r="C209" s="77"/>
-      <c r="D209" s="78"/>
+    <row r="209" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A209" s="47"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="53"/>
+      <c r="D209" s="54"/>
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
@@ -5892,11 +6158,11 @@
       <c r="T209" s="8"/>
       <c r="U209" s="8"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="71"/>
-      <c r="B210" s="77"/>
-      <c r="C210" s="77"/>
-      <c r="D210" s="78"/>
+    <row r="210" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A210" s="47"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="53"/>
+      <c r="D210" s="54"/>
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
@@ -5915,11 +6181,11 @@
       <c r="T210" s="8"/>
       <c r="U210" s="8"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="71"/>
-      <c r="B211" s="77"/>
-      <c r="C211" s="77"/>
-      <c r="D211" s="78"/>
+    <row r="211" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A211" s="47"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="53"/>
+      <c r="D211" s="54"/>
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
@@ -5938,11 +6204,11 @@
       <c r="T211" s="8"/>
       <c r="U211" s="8"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="71"/>
-      <c r="B212" s="77"/>
-      <c r="C212" s="77"/>
-      <c r="D212" s="78"/>
+    <row r="212" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A212" s="47"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="54"/>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
@@ -5961,11 +6227,11 @@
       <c r="T212" s="8"/>
       <c r="U212" s="8"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="71"/>
-      <c r="B213" s="77"/>
-      <c r="C213" s="77"/>
-      <c r="D213" s="78"/>
+    <row r="213" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A213" s="47"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="54"/>
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
@@ -5984,11 +6250,11 @@
       <c r="T213" s="8"/>
       <c r="U213" s="8"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="71"/>
-      <c r="B214" s="77"/>
-      <c r="C214" s="77"/>
-      <c r="D214" s="78"/>
+    <row r="214" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A214" s="47"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="54"/>
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
@@ -6007,11 +6273,11 @@
       <c r="T214" s="8"/>
       <c r="U214" s="8"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="71"/>
-      <c r="B215" s="77"/>
-      <c r="C215" s="77"/>
-      <c r="D215" s="78"/>
+    <row r="215" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A215" s="47"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="54"/>
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
@@ -6030,11 +6296,11 @@
       <c r="T215" s="8"/>
       <c r="U215" s="8"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="71"/>
-      <c r="B216" s="77"/>
-      <c r="C216" s="77"/>
-      <c r="D216" s="78"/>
+    <row r="216" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A216" s="47"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="53"/>
+      <c r="D216" s="54"/>
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
@@ -6053,11 +6319,11 @@
       <c r="T216" s="8"/>
       <c r="U216" s="8"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="71"/>
-      <c r="B217" s="77"/>
-      <c r="C217" s="77"/>
-      <c r="D217" s="78"/>
+    <row r="217" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A217" s="47"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="54"/>
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
@@ -6076,11 +6342,11 @@
       <c r="T217" s="8"/>
       <c r="U217" s="8"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="71"/>
-      <c r="B218" s="77"/>
-      <c r="C218" s="77"/>
-      <c r="D218" s="78"/>
+    <row r="218" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A218" s="47"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="54"/>
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
@@ -6099,11 +6365,11 @@
       <c r="T218" s="8"/>
       <c r="U218" s="8"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="71"/>
-      <c r="B219" s="77"/>
-      <c r="C219" s="77"/>
-      <c r="D219" s="78"/>
+    <row r="219" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A219" s="47"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="54"/>
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
@@ -6122,11 +6388,11 @@
       <c r="T219" s="8"/>
       <c r="U219" s="8"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="71"/>
-      <c r="B220" s="77"/>
-      <c r="C220" s="77"/>
-      <c r="D220" s="78"/>
+    <row r="220" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A220" s="47"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="54"/>
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
@@ -6145,11 +6411,11 @@
       <c r="T220" s="8"/>
       <c r="U220" s="8"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="71"/>
-      <c r="B221" s="77"/>
-      <c r="C221" s="77"/>
-      <c r="D221" s="78"/>
+    <row r="221" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A221" s="47"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="54"/>
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
@@ -6168,11 +6434,11 @@
       <c r="T221" s="8"/>
       <c r="U221" s="8"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="71"/>
-      <c r="B222" s="77"/>
-      <c r="C222" s="77"/>
-      <c r="D222" s="78"/>
+    <row r="222" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A222" s="47"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="54"/>
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
       <c r="G222" s="8"/>
@@ -6191,11 +6457,11 @@
       <c r="T222" s="8"/>
       <c r="U222" s="8"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="71"/>
-      <c r="B223" s="77"/>
-      <c r="C223" s="77"/>
-      <c r="D223" s="78"/>
+    <row r="223" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A223" s="47"/>
+      <c r="B223" s="53"/>
+      <c r="C223" s="53"/>
+      <c r="D223" s="54"/>
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
@@ -6214,11 +6480,11 @@
       <c r="T223" s="8"/>
       <c r="U223" s="8"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="71"/>
-      <c r="B224" s="77"/>
-      <c r="C224" s="77"/>
-      <c r="D224" s="78"/>
+    <row r="224" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A224" s="47"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="54"/>
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
@@ -7019,32 +7285,6 @@
     <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="D2:N5"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:R11"/>
-    <mergeCell ref="P12:R12"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="P21:R21"/>
     <mergeCell ref="P13:R13"/>
@@ -7054,325 +7294,351 @@
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="P19:R19"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:R11"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:N5"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
   </mergeCells>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="5" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="5" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.86"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="22.57"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="6" width="17.29"/>
-    <col customWidth="1" min="7" max="7" width="16.86"/>
-    <col customWidth="1" min="8" max="8" width="7.57"/>
-    <col customWidth="1" min="9" max="9" width="4.0"/>
-    <col customWidth="1" min="10" max="26" width="17.29"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="26" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83" t="str">
-        <f>IMAGE("",1)</f>
-        <v/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="89" t="e">
+        <f ca="1">IMAGE("",1)</f>
+        <v>#NAME?</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="128">
+        <v>44821</v>
+      </c>
+      <c r="H2" s="75"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="58"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="85" t="s">
+      <c r="E8" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="85" t="s">
+      <c r="F8" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="85" t="s">
+      <c r="G8" s="75"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="57"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="58"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="58"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="58"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="122"/>
+      <c r="B19" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="122"/>
+      <c r="B20" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="81"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="86" t="s">
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="81"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="81"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88" t="s">
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="122"/>
+      <c r="B21" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="81"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="89" t="s">
-        <v>27</v>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="120" t="s">
+        <v>26</v>
       </c>
-      <c r="D8" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="81"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="81"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="81"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="81"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="81"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="81"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="81"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="81"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="81"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="81"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="81"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="81"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="81"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="81"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="81"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8342,35 +8608,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="21">
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="D2:F5"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>